--- a/Notebooks/LETU_v5_new_metrics/res.xlsx
+++ b/Notebooks/LETU_v5_new_metrics/res.xlsx
@@ -1,37 +1,134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FavouritesFolders\Documents\GitHub\MastersDegree\Notebooks\LETU_v5_new_metrics\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9211D4C9-DC51-4264-B11C-E61A9AD708CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>pipeline_name</t>
+  </si>
+  <si>
+    <t>validation_score</t>
+  </si>
+  <si>
+    <t>percent_better_than_baseline</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>CatBoost Regressor w/ Replace Nullable Types Transformer + Imputer + Select Columns Transformer</t>
+  </si>
+  <si>
+    <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [3, 5, 11, 14, 18, 19, 20, 22, 23, 25, 26, 27, 28, 30, 33, 35, 36, 37, 40, 43, 45, 46, 47, 48, 49, 50]}, 'CatBoost Regressor': {'n_estimators': 10, 'eta': 0.03, 'max_depth': 6, 'bootstrap_type': None, 'silent': False, 'allow_writing_files': False, 'n_jobs': -1}}</t>
+  </si>
+  <si>
+    <t>Elastic Net Regressor w/ Replace Nullable Types Transformer + Imputer + Standard Scaler + RF Regressor Select From Model</t>
+  </si>
+  <si>
+    <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'RF Regressor Select From Model': {'number_features': None, 'n_estimators': 10, 'max_depth': None, 'percent_features': 0.5, 'threshold': 'median', 'n_jobs': -1}, 'Elastic Net Regressor': {'alpha': 0.0001, 'l1_ratio': 0.15, 'max_iter': 1000, 'normalize': False}}</t>
+  </si>
+  <si>
+    <t>Mean Baseline Regression Pipeline</t>
+  </si>
+  <si>
+    <t>{'Baseline Regressor': {'strategy': 'mean'}}</t>
+  </si>
+  <si>
+    <t>Elastic Net Regressor w/ Replace Nullable Types Transformer + Imputer + Standard Scaler + Select Columns Transformer</t>
+  </si>
+  <si>
+    <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'median', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [3, 5, 11, 14, 18, 19, 20, 22, 23, 25, 26, 27, 28, 30, 33, 35, 36, 37, 40, 43, 45, 46, 47, 48, 49, 50]}, 'Elastic Net Regressor': {'alpha': 0.27265629458011326, 'l1_ratio': 0.47766511732135, 'max_iter': 1000, 'normalize': False}}</t>
+  </si>
+  <si>
+    <t>Random Forest Regressor w/ Replace Nullable Types Transformer + Imputer</t>
+  </si>
+  <si>
+    <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Random Forest Regressor': {'n_estimators': 100, 'max_depth': 6, 'n_jobs': -1}}</t>
+  </si>
+  <si>
+    <t>Extra Trees Regressor w/ Replace Nullable Types Transformer + Imputer + Select Columns Transformer</t>
+  </si>
+  <si>
+    <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [3, 5, 11, 14, 18, 19, 20, 22, 23, 25, 26, 27, 28, 30, 33, 35, 36, 37, 40, 43, 45, 46, 47, 48, 49, 50]}, 'Extra Trees Regressor': {'n_estimators': 100, 'max_features': 'auto', 'max_depth': 6, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_jobs': -1}}</t>
+  </si>
+  <si>
+    <t>Elastic Net Regressor w/ Replace Nullable Types Transformer + Imputer + Standard Scaler</t>
+  </si>
+  <si>
+    <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Elastic Net Regressor': {'alpha': 0.0001, 'l1_ratio': 0.15, 'max_iter': 1000, 'normalize': False}}</t>
+  </si>
+  <si>
+    <t>Random Forest Regressor w/ Replace Nullable Types Transformer + Imputer + RF Regressor Select From Model</t>
+  </si>
+  <si>
+    <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'RF Regressor Select From Model': {'number_features': None, 'n_estimators': 10, 'max_depth': None, 'percent_features': 0.5, 'threshold': 'median', 'n_jobs': -1}, 'Random Forest Regressor': {'n_estimators': 100, 'max_depth': 6, 'n_jobs': -1}}</t>
+  </si>
+  <si>
+    <t>Random Forest Regressor w/ Replace Nullable Types Transformer + Imputer + Select Columns Transformer</t>
+  </si>
+  <si>
+    <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'knn', 'boolean_impute_strategy': 'knn', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [3, 5, 11, 14, 18, 19, 20, 22, 23, 25, 26, 27, 28, 30, 33, 35, 36, 37, 40, 43, 45, 46, 47, 48, 49, 50]}, 'Random Forest Regressor': {'n_estimators': 369, 'max_depth': 10, 'n_jobs': -1}}</t>
+  </si>
+  <si>
+    <t>LightGBM Regressor w/ Replace Nullable Types Transformer + Imputer + Select Columns Transformer</t>
+  </si>
+  <si>
+    <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [3, 5, 11, 14, 18, 19, 20, 22, 23, 25, 26, 27, 28, 30, 33, 35, 36, 37, 40, 43, 45, 46, 47, 48, 49, 50]}, 'LightGBM Regressor': {'boosting_type': 'gbdt', 'learning_rate': 0.1, 'n_estimators': 20, 'max_depth': 0, 'num_leaves': 31, 'min_child_samples': 20, 'n_jobs': -1, 'bagging_freq': 0, 'bagging_fraction': 0.9}}</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0000%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +143,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,249 +476,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="112.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>pipeline_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>validation_score</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>percent_better_than_baseline</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CatBoost Regressor w/ Replace Nullable Types Transformer + Imputer + Select Columns Transformer</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2709205441962156</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.003872638510073951</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [3, 5, 11, 14, 18, 19, 20, 22, 23, 25, 26, 27, 28, 30, 33, 35, 36, 37, 40, 43, 45, 46, 47, 48, 49, 50]}, 'CatBoost Regressor': {'n_estimators': 10, 'eta': 0.03, 'max_depth': 6, 'bootstrap_type': None, 'silent': False, 'allow_writing_files': False, 'n_jobs': -1}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Elastic Net Regressor w/ Replace Nullable Types Transformer + Imputer + Standard Scaler + RF Regressor Select From Model</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2709250081452896</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.002225005542746139</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'RF Regressor Select From Model': {'number_features': None, 'n_estimators': 10, 'max_depth': None, 'percent_features': 0.5, 'threshold': 'median', 'n_jobs': -1}, 'Elastic Net Regressor': {'alpha': 0.0001, 'l1_ratio': 0.15, 'max_iter': 1000, 'normalize': False}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mean Baseline Regression Pipeline</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.270931036375866</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>{'Baseline Regressor': {'strategy': 'mean'}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.27092054419621558</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3.8726385100739508E-3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.27092500814528958</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2.2250055427461392E-3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.27093103637586602</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Elastic Net Regressor w/ Replace Nullable Types Transformer + Imputer + Standard Scaler + Select Columns Transformer</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.270931036375866</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.27093103637586602</v>
+      </c>
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'median', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [3, 5, 11, 14, 18, 19, 20, 22, 23, 25, 26, 27, 28, 30, 33, 35, 36, 37, 40, 43, 45, 46, 47, 48, 49, 50]}, 'Elastic Net Regressor': {'alpha': 0.27265629458011326, 'l1_ratio': 0.47766511732135, 'max_iter': 1000, 'normalize': False}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Random Forest Regressor w/ Replace Nullable Types Transformer + Imputer</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2709516973741088</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.007625925224051717</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Random Forest Regressor': {'n_estimators': 100, 'max_depth': 6, 'n_jobs': -1}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.27095169737410879</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-7.6259252240517168E-3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Extra Trees Regressor w/ Replace Nullable Types Transformer + Imputer + Select Columns Transformer</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2709671100035758</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.01331469003785635</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [3, 5, 11, 14, 18, 19, 20, 22, 23, 25, 26, 27, 28, 30, 33, 35, 36, 37, 40, 43, 45, 46, 47, 48, 49, 50]}, 'Extra Trees Regressor': {'n_estimators': 100, 'max_features': 'auto', 'max_depth': 6, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_jobs': -1}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.27096711000357582</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-1.3314690037856351E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Elastic Net Regressor w/ Replace Nullable Types Transformer + Imputer + Standard Scaler</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.270968858681838</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.01396012301797118</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Elastic Net Regressor': {'alpha': 0.0001, 'l1_ratio': 0.15, 'max_iter': 1000, 'normalize': False}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.27096885868183801</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-1.396012301797118E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Random Forest Regressor w/ Replace Nullable Types Transformer + Imputer + RF Regressor Select From Model</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2709758657930045</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-0.01654643105425618</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'RF Regressor Select From Model': {'number_features': None, 'n_estimators': 10, 'max_depth': None, 'percent_features': 0.5, 'threshold': 'median', 'n_jobs': -1}, 'Random Forest Regressor': {'n_estimators': 100, 'max_depth': 6, 'n_jobs': -1}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.27097586579300448</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-1.654643105425618E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Random Forest Regressor w/ Replace Nullable Types Transformer + Imputer + Select Columns Transformer</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2709960605303542</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.02400026049358195</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'knn', 'boolean_impute_strategy': 'knn', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [3, 5, 11, 14, 18, 19, 20, 22, 23, 25, 26, 27, 28, 30, 33, 35, 36, 37, 40, 43, 45, 46, 47, 48, 49, 50]}, 'Random Forest Regressor': {'n_estimators': 369, 'max_depth': 10, 'n_jobs': -1}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.27099606053035419</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-2.4000260493581949E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>LightGBM Regressor w/ Replace Nullable Types Transformer + Imputer + Select Columns Transformer</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2710612835795274</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-0.04807393254152682</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [3, 5, 11, 14, 18, 19, 20, 22, 23, 25, 26, 27, 28, 30, 33, 35, 36, 37, 40, 43, 45, 46, 47, 48, 49, 50]}, 'LightGBM Regressor': {'boosting_type': 'gbdt', 'learning_rate': 0.1, 'n_estimators': 20, 'max_depth': 0, 'num_leaves': 31, 'min_child_samples': 20, 'n_jobs': -1, 'bagging_freq': 0, 'bagging_fraction': 0.9}}</t>
-        </is>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.27106128357952741</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-4.8073932541526823E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
